--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -575,7 +575,7 @@
         <v>45659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45947.47805555556</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45940.56810185185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45964.59460648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45181</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45660</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44651</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45660</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46052.69451388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45985.6365625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45061</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44977</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>45940.57412037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45978.65361111111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>46029</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44701</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>46021.40372685185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44970</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44950</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45831.4458912037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45975.4800462963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45741.64648148148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>45966.67679398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45775</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44662</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45912.65143518519</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>45930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45946.52922453704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>45722.57912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44966</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45965.64359953703</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44970</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44551</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>45208</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44677</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45799.62886574074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45399.48680555556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>45905.31760416667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45853.32288194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45947.63479166666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45964.62684027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44846</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>45758.4828125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45981.63950231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>45294.44883101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45142</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45548.4465162037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>45783.38454861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44579.9575</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44756.69783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44788</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>45748.4525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45163</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45683</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45917.57564814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45632</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45722.58457175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45922.49263888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45931.32129629629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44595</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45952.59070601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45953.40888888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45953.42253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45964</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45967.33539351852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45931.43355324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45940.3791087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45763.51265046297</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45722.58086805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45966.67909722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>46051.57261574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45160</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45741.63833333334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45722.57790509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45335</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45310.44064814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45310</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>45789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45789.63715277778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45621.68104166666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44837</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44308</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>44266</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44337</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44463</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44594.46940972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44516.36832175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44715.41534722222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>44439.57831018518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>44579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>44580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>44708</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44708</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>44886.47109953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44286</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44824.59918981481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>44438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>44627.47141203703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>44581</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>44421</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44504.63344907408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44453</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44616</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44627.46730324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44790.60746527778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44389</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44517</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44469.55407407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44452</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44734</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44337</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44480</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44853.5450462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44743</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44551</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44417</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44865</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44543.52140046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44581</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44704.44180555556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44701.57021990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44750</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44548</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44742</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44648.65048611111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44648.65753472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44469.56458333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44636.93181712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44684.47436342593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44480.58166666667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44496</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44672.41855324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44469</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44631.29655092592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44728</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44871.72850694445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44749.52354166667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>44627.4699537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44627.4737962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44819.52074074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45736.38332175926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45420.36299768519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44945</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45775.63877314814</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44965.42444444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45252</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45252.57987268519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44858.783125</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>45080</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>45387.33554398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45189</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44491.3346875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>45617</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>45457</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45685.91146990741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44847</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44656</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>45005</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>44964</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45674</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45253</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45173.3516087963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45394</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44620.62225694444</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45646.57768518518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45314.43193287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45622.65828703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45622.67170138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45224.79760416667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45751.63172453704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45344.338125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45551</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44291</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44769.65189814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45447</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45757.65542824074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45022</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44841.57192129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45161.32083333333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>45727.37976851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44270</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44916.6696875</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44853.57118055555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45226.60010416667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45645.59362268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45526</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44739</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45799.44140046297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>44638.40253472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>45799.59126157407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45161.64891203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45387.55097222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>45803.63006944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45366.58351851852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45541.29972222223</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>45478</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45786</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45645</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45399</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45887.66127314815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45804.57641203704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45804.69550925926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45805</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45804.60184027778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45769.59454861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45887.52802083334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45804.54819444445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45455</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45791</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45527</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45184</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45888.43912037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>45810.47152777778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45343.66717592593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45888.49290509259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45891.48542824074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45891.57488425926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45649.6225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45812.66421296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45812.63758101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45891.58877314815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45812.4972337963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45813.55859953703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44950.47427083334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45812.47153935185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>45894.6178125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>45894.62137731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45446</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45685.70260416667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45539.43512731481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45818.47733796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45896.58956018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45896.62949074074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45818.58984953703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45574</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45901.48795138889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45901.49728009259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45901.54505787037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45898.61831018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45901.56194444445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45901.54918981482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45901.55429398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45162.44894675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45818.54159722223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45901.55740740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45901.56009259259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45807.63822916667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45902.44439814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45835.56524305556</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45902.40758101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45902.40875</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45903</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45903</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45538</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45807.62752314815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45754</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45903.81962962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45758</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44603</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45748.6355787037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44964</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44631.38126157408</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45908.58109953703</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45908.35633101852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45908.36148148148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44858.61703703704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45910.47983796296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45910.48737268519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45824.42741898148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45401.68577546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45910.56313657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45911.35693287037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45821.60461805556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>45824.59332175926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45911.58546296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>45910.47623842592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45826.65520833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45912.64945601852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45775</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>44945</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45030</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45623.41342592592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44937.61023148148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>45786</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45631.38019675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>45841</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44896.68234953703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44896.69231481481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44928.45600694444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>45917.55430555555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>45853</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45845.38168981481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>45667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>45833.48898148148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>45833.45049768518</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>45845.36872685186</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>45848.58708333333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>45912.66787037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>45912.67517361111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45489</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>45071.64012731481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45257.65261574074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44894</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45587.60459490741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44846.38762731481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45912.67254629629</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>45666</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45786</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45853.36192129629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44936</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45631.38398148148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45917.45171296296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>45623.47248842593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44929</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>45772.33785879629</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44942.49743055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45833.61322916667</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44518.40658564815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>45921.71658564815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>45921.71239583333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45922.66908564815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45922.48269675926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45921.71451388889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45832.58662037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45833.63829861111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45921.71875</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45922.33063657407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45833.65157407407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>45832.69688657407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>45833.60854166667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45832.69494212963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45832.32575231481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45925.54199074074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45526</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45928.59989583334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>45929.471875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45835.32549768518</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45281.37799768519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45835.59493055556</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45833.816875</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45310.44783564815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45928.60292824074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45928.60719907407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45926.47443287037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45835.58365740741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>45835</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45835.57688657408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45833.81484953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44837.66217592593</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44916.66769675926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45393</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45837.72260416667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44965.60422453703</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45840.5905324074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45936.40495370371</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45936.58931712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45936.36195601852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45733.6156712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45741.6415162037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>45936.60018518518</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45582.62050925926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45936.41964120371</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45936.42704861111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44865</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>44704.40528935185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45936.59858796297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45936.36921296296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45582.66524305556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45938.40780092592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45939.45197916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45736.46944444445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45938.55978009259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45937.4534375</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45939.39984953704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44964</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45938.50260416666</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45936</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
         <v>45936</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45937.35484953703</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45642.58673611111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45138</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45938</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45939.42364583333</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45121.63271990741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45770.45944444444</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45943.54231481482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>45842.65422453704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44237</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45943.54678240741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45845.50091435185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45845.50322916666</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45275.59357638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45842.67362268519</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>45842.67251157408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45390.58060185185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45847.32696759259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45944.47350694444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44670</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45947.52800925926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>45946.36325231481</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45947.38002314815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45946.55498842592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45849.55525462963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45946.62524305555</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45946.53392361111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45947.4264699074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45947.45293981482</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44843</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45852.57078703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45947.46891203704</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45946.34517361111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>45851.55418981481</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>45852.58104166666</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>45852.59546296296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45812.49445601852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45645</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>45852.5746412037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45851.55586805556</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45851.55748842593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>45951.57142361111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45632.5654050926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45950.41685185185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45763.4009375</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45757.42503472222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>45785.54427083334</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45862.56547453703</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45852.60275462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45862.52585648148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>45862.53918981482</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45864.63327546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45865.44140046297</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45865.4359837963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>44439.46604166667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45867.42266203704</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
         <v>45772.58797453704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45757.65234953703</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>45867.43064814815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>45637</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45133</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45868.85131944445</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>45757.37369212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32039,7 +32039,7 @@
         <v>45957</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45868.29372685185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>45868.83431712963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>45868.85018518518</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45957.48424768518</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45868.83913194444</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45868.84859953704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>45957.50965277778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>45957.52932870371</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45265.62744212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>45957</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>45832.64122685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>45852.61168981482</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45954.37163194444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44972.43747685185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45957.50313657407</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45792.43809027778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45954.4975462963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45954.50453703704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44684.56060185185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>45957.43148148148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45954.48096064815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>45735.44649305556</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33385,7 +33385,7 @@
         <v>45492.45841435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45727.38053240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>45170.52974537037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45845.30168981481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45526</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>45958</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>44964.51579861111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45762.57510416667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>45960.46894675926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>45959.83425925926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>45960.67751157407</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44285.6565162037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34104,7 +34104,7 @@
         <v>45960.01471064815</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45960.688125</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44984</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45961.37568287037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45965.55327546296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45057.42894675926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45965.65832175926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45965.63770833334</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45635</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45965.58917824074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>45965.6553125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>45966.50311342593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>45881.5046412037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45966.34025462963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45677.64354166666</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>45312</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>45966.34560185186</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>45966.35315972222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35195,7 +35195,7 @@
         <v>44964</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>45629</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>45259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>45330.44269675926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>45320</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>45973.63171296296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>45972</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>45973.61974537037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45973.62456018518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>45973.35476851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>45972</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>45973.63755787037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45972</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45973.6449537037</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45972</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>45887.64688657408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>45763.42081018518</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>45979.39712962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>45979.38488425926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>45105.39783564815</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>45979.68946759259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>45726.44540509259</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         <v>45981.65857638889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>45981.40962962963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>45222.6916550926</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45981.5921875</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>45981.4483912037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45981.45741898148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45980.45951388889</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45748</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>45982.61978009259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>45706</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         <v>45982.32059027778</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45982.32641203704</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>45982.38324074074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>46027.73540509259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>46020.58802083333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>46028.66145833334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37503,7 +37503,7 @@
         <v>45987.36651620371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37560,7 +37560,7 @@
         <v>46028.65712962963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>45958.42043981481</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44956.62740740741</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45951.44916666667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>46028.65945601852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>45889.61184027778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45940.38178240741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45960.34961805555</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45968.41636574074</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38113,7 +38113,7 @@
         <v>45960.57180555556</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>44600.44900462963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45947.44677083333</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>45958.45113425926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>46028.65503472222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45957.43520833334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>45968.4377662037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45987.58097222223</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>45986.53128472222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45958.42452546296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>45960.71332175926</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>46024.50481481481</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45960.76657407408</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>45889.60385416666</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>46029.86646990741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39028,7 +39028,7 @@
         <v>44689</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>45987.60527777778</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>45947.47751157408</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39214,7 +39214,7 @@
         <v>45947.5503587963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45947.56074074074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>45958.41660879629</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39400,7 +39400,7 @@
         <v>45958.43461805556</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39462,7 +39462,7 @@
         <v>46020.61392361111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39524,7 +39524,7 @@
         <v>45960.57493055556</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>45960.75167824074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45987.60256944445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>46029.45288194445</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>46024.50523148148</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>45947.44466435185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45558.45347222222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45645.41540509259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>45989.46065972222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40062,7 +40062,7 @@
         <v>45594.65586805555</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40119,7 +40119,7 @@
         <v>46030.45091435185</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40176,7 +40176,7 @@
         <v>45988.56907407408</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40233,7 +40233,7 @@
         <v>46030.65311342593</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>45239.58409722222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40352,7 +40352,7 @@
         <v>45989.47987268519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>46030.66539351852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>45988.57533564815</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>45637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40590,7 +40590,7 @@
         <v>45992.28574074074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45992.29383101852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45992.30194444444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45992.29976851852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>45991.36298611111</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40900,7 +40900,7 @@
         <v>45957</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>45769.3231712963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>45009.33243055556</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>46034</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44858</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45994.37430555555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>46036.71761574074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>46034</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45994.3599537037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>45994.63814814815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45994.52657407407</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>45439</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>45999.38054398148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>45999.42177083333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>45764.63778935185</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>45632.55709490741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>44964</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>45257</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>45239.37905092593</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         <v>45469</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42065,7 +42065,7 @@
         <v>45127</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>46029</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42184,7 +42184,7 @@
         <v>45996.44386574074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42241,7 +42241,7 @@
         <v>44964</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45748.4287962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42365,7 +42365,7 @@
         <v>44726</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>46042.47866898148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>46042.47289351852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>46042.46269675926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>46043.5583449074</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>44732</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>46000.668125</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>45961.5821412037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>44966</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>44909.71309027778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45961.61335648148</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>46003.37525462963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43074,7 +43074,7 @@
         <v>46003.33967592593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>46003.52034722222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>46045.51246527778</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>46045.51665509259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44959.52206018518</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44358.56138888889</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>46043</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>46002.47396990741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43550,7 +43550,7 @@
         <v>44853.56622685185</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43607,7 +43607,7 @@
         <v>45251</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>45574</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>46044.4862037037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>45726.4434375</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>46002.47112268519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>46002.48126157407</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43974,7 +43974,7 @@
         <v>46044.64974537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>46002.361875</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44421</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>46007.64109953704</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>46007.56385416666</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>46049.56449074074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>46048.45535879629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>46048.46590277777</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>44335</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>46049.66104166667</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>46044.63179398148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>45265.56704861111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>46051.58244212963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>46051.57649305555</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>46051.7077199074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>46051.71248842592</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>46008.32130787037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>46009</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45020,7 +45020,7 @@
         <v>45783</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>46051.45866898148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>46050.54232638889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>46008.84649305556</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>46008.85138888889</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>46008.34482638889</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44453.60243055555</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45784</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>46051.56842592593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45548,7 +45548,7 @@
         <v>46008.7384375</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45605,7 +45605,7 @@
         <v>46010.64234953704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         <v>45279.51664351852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>46029</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>46010.66298611111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45848,7 +45848,7 @@
         <v>45751.59844907407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         <v>45538</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         <v>46055.67453703703</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>46054.72121527778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>46010.56049768518</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46143,7 +46143,7 @@
         <v>46055.68753472222</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>46052.61545138889</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46257,7 +46257,7 @@
         <v>45040.43703703704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>46010.55542824074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>46010.55767361111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46443,7 +46443,7 @@
         <v>45821</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>46055.66452546296</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46562,7 +46562,7 @@
         <v>46055.66721064815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46619,7 +46619,7 @@
         <v>46011.5487037037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44781.68261574074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46733,7 +46733,7 @@
         <v>46010.55642361111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>46010.55979166667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         <v>46052.67892361111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>44337</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46976,7 +46976,7 @@
         <v>46053</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>46053</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>46014.37875</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47152,7 +47152,7 @@
         <v>45400.41387731482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44713</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44781.3843287037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>46053</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>46020.75388888889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>46020.76443287037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>46020.7575</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>46020.76140046296</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>46020.76618055555</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>44978.5362037037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47752,7 +47752,7 @@
         <v>45384.60682870371</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47809,7 +47809,7 @@
         <v>46020.77010416667</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44594.41829861111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44964</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47995,7 +47995,7 @@
         <v>44747</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45181</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>44907.56795138889</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45624.55622685186</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45733.42229166667</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45733.42510416666</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>46017.47381944444</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>46017.53915509259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>45726.44707175926</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45645</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48605,7 +48605,7 @@
         <v>44909</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48662,7 +48662,7 @@
         <v>45366.5775462963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48719,7 +48719,7 @@
         <v>44964.52627314815</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48781,7 +48781,7 @@
         <v>45245.39725694444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48838,7 +48838,7 @@
         <v>45560</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48900,7 +48900,7 @@
         <v>45135</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48962,7 +48962,7 @@
         <v>45229</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45569</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49086,7 +49086,7 @@
         <v>44978.5591087963</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49143,7 +49143,7 @@
         <v>44978.56202546296</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49200,7 +49200,7 @@
         <v>45642</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49257,7 +49257,7 @@
         <v>45761.56990740741</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45058.53024305555</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>44453</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44956.36935185185</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49495,7 +49495,7 @@
         <v>45639</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49552,7 +49552,7 @@
         <v>44908</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44971</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45470</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44371</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49790,7 +49790,7 @@
         <v>44597.83796296296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>45387</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>45580</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44874</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44701.60350694445</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>45244.6134837963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>45190</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44862</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50251,7 +50251,7 @@
         <v>45385</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50308,7 +50308,7 @@
         <v>44696</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50365,7 +50365,7 @@
         <v>44365</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50427,7 +50427,7 @@
         <v>44966</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50489,7 +50489,7 @@
         <v>44446</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50551,7 +50551,7 @@
         <v>45439.42039351852</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50608,7 +50608,7 @@
         <v>44588</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50665,7 +50665,7 @@
         <v>45387.55987268518</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50727,7 +50727,7 @@
         <v>45387.34152777777</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50784,7 +50784,7 @@
         <v>45645</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50841,7 +50841,7 @@
         <v>45763.67659722222</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50903,7 +50903,7 @@
         <v>44792</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50960,7 +50960,7 @@
         <v>45762.61427083334</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51022,7 +51022,7 @@
         <v>45104.53165509259</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51084,7 +51084,7 @@
         <v>45072</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51141,7 +51141,7 @@
         <v>45385.63880787037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>44964</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51265,7 +51265,7 @@
         <v>45643</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45655</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51384,7 +51384,7 @@
         <v>45379.4344212963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51441,7 +51441,7 @@
         <v>45741.65077546296</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45769.65503472222</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45705.29239583333</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45174</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>44980</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>44981.51266203704</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>44382</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>44266.35443287037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51922,7 +51922,7 @@
         <v>45439</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51979,7 +51979,7 @@
         <v>45600.54467592593</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52036,7 +52036,7 @@
         <v>45763.38787037037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52098,7 +52098,7 @@
         <v>44732.35172453704</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52155,7 +52155,7 @@
         <v>45204</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45754.71314814815</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45203</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>44389</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44883</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>45167</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44917</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44804</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45046</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45392.64703703704</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>45448</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>45762.56429398148</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>45762.62068287037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>45727.37728009259</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>45092</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>45764.44233796297</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>45754.72487268518</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53221,7 +53221,7 @@
         <v>45390.5662962963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
         <v>45638</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         <v>45776.37788194444</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53459,7 +53459,7 @@
         <v>45776.37835648148</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>45516.66552083333</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>45777.36902777778</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53640,7 +53640,7 @@
         <v>45777.55640046296</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53697,7 +53697,7 @@
         <v>45308.49630787037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53754,7 +53754,7 @@
         <v>45357.45214120371</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53811,7 +53811,7 @@
         <v>45782.3503587963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53873,7 +53873,7 @@
         <v>45782.483125</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>45783.4287962963</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53997,7 +53997,7 @@
         <v>45782.59054398148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54054,7 +54054,7 @@
         <v>45783.42976851852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54116,7 +54116,7 @@
         <v>45784.43336805556</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>45785</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54230,7 +54230,7 @@
         <v>45527</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54292,7 +54292,7 @@
         <v>45789.63409722222</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>45791.45799768518</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54406,7 +54406,7 @@
         <v>45791.46357638889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54463,7 +54463,7 @@
         <v>45791.4603587963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54520,7 +54520,7 @@
         <v>45793.5515162037</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54577,7 +54577,7 @@
         <v>45713</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54639,7 +54639,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54701,7 +54701,7 @@
         <v>45203</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54763,7 +54763,7 @@
         <v>45511</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54820,7 +54820,7 @@
         <v>45796.65540509259</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54882,7 +54882,7 @@
         <v>45573.66729166666</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54939,7 +54939,7 @@
         <v>45796.66336805555</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>45796.6252662037</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -575,7 +575,7 @@
         <v>45659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45947.47805555556</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45940.56810185185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45964.59460648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45181</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45660</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44651</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45660</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46052.69451388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45985.6365625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45061</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44977</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>45940.57412037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45978.65361111111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>46029</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44701</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>46021.40372685185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44970</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44950</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45831.4458912037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45975.4800462963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45741.64648148148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>45966.67679398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45775</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44662</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45912.65143518519</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>45930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45946.52922453704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>45722.57912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44966</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45965.64359953703</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44970</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44551</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>45208</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44677</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45799.62886574074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45399.48680555556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>45905.31760416667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45853.32288194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45947.63479166666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45964.62684027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44846</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>45758.4828125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45981.63950231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>45294.44883101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45142</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45548.4465162037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>45783.38454861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44579.9575</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44756.69783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44788</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>45748.4525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45163</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45683</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45917.57564814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45632</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45722.58457175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45922.49263888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45931.32129629629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44595</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45952.59070601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45953.40888888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45953.42253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45964</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45967.33539351852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45931.43355324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45940.3791087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45763.51265046297</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45722.58086805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45966.67909722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>46051.57261574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45160</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45741.63833333334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45722.57790509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45335</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45310.44064814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45310</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>45789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45789.63715277778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45621.68104166666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44837</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44308</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>44266</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44337</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44463</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44594.46940972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44516.36832175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44715.41534722222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>44439.57831018518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>44579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>44580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>44708</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44708</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>44886.47109953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44286</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44824.59918981481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>44438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>44627.47141203703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>44581</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>44421</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44504.63344907408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44453</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44616</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44627.46730324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44790.60746527778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44389</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44517</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44469.55407407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44452</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44734</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44337</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44480</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44853.5450462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44743</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44551</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44417</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44865</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44543.52140046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44581</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44704.44180555556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44701.57021990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44750</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44548</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44742</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44648.65048611111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44648.65753472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44469.56458333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44636.93181712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44684.47436342593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44480.58166666667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44496</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44672.41855324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44469</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44631.29655092592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44728</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44871.72850694445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44749.52354166667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>44627.4699537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44627.4737962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44819.52074074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45736.38332175926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45420.36299768519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44945</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45775.63877314814</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44965.42444444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45252</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45252.57987268519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44858.783125</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>45080</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>45387.33554398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45189</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44491.3346875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>45617</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>45457</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45685.91146990741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44847</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44656</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>45005</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>44964</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45674</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45253</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45173.3516087963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45394</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44620.62225694444</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45646.57768518518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45314.43193287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45622.65828703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45622.67170138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45224.79760416667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45751.63172453704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45344.338125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45551</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44291</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44769.65189814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45447</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45757.65542824074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45022</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44841.57192129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45161.32083333333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>45727.37976851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44270</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44916.6696875</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44853.57118055555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45226.60010416667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45645.59362268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45526</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44739</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45799.44140046297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>44638.40253472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>45799.59126157407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45161.64891203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45387.55097222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>45803.63006944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45366.58351851852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45541.29972222223</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>45478</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45786</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45645</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45399</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45887.66127314815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45804.57641203704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45804.69550925926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45805</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45804.60184027778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45769.59454861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45887.52802083334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45804.54819444445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45455</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45791</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45527</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45184</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45888.43912037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>45810.47152777778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45343.66717592593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45888.49290509259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45891.48542824074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45891.57488425926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45649.6225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45812.66421296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45812.63758101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45891.58877314815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45812.4972337963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45813.55859953703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44950.47427083334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45812.47153935185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>45894.6178125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>45894.62137731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45446</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45685.70260416667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45539.43512731481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45818.47733796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45896.58956018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45896.62949074074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45818.58984953703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45574</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45901.48795138889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45901.49728009259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45901.54505787037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45898.61831018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45901.56194444445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45901.54918981482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45901.55429398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45162.44894675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45818.54159722223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45901.55740740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45901.56009259259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45807.63822916667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45902.44439814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45835.56524305556</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45902.40758101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45902.40875</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45903</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45903</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45538</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45807.62752314815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45754</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45903.81962962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45758</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44603</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45748.6355787037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44964</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44631.38126157408</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45908.58109953703</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45908.35633101852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45908.36148148148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44858.61703703704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45910.47983796296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45910.48737268519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45824.42741898148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45401.68577546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45910.56313657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45911.35693287037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45821.60461805556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>45824.59332175926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45911.58546296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>45910.47623842592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45826.65520833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45912.64945601852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45775</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>44945</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45030</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45623.41342592592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44937.61023148148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>45786</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45631.38019675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>45841</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44896.68234953703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44896.69231481481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44928.45600694444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>45917.55430555555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>45853</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45845.38168981481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>45667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>45833.48898148148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>45833.45049768518</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>45845.36872685186</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>45848.58708333333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>45912.66787037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>45912.67517361111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45489</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>45071.64012731481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45257.65261574074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44894</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45587.60459490741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44846.38762731481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45912.67254629629</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>45666</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45786</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45853.36192129629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44936</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45631.38398148148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45917.45171296296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>45623.47248842593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44929</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>45772.33785879629</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44942.49743055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45833.61322916667</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44518.40658564815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>45921.71658564815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>45921.71239583333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45922.66908564815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45922.48269675926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45921.71451388889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45832.58662037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45833.63829861111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45921.71875</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45922.33063657407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45833.65157407407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>45832.69688657407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>45833.60854166667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45832.69494212963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45832.32575231481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45925.54199074074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45526</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45928.59989583334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>45929.471875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45835.32549768518</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45281.37799768519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45835.59493055556</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45833.816875</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45310.44783564815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45928.60292824074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45928.60719907407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45926.47443287037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45835.58365740741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>45835</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45835.57688657408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45833.81484953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44837.66217592593</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44916.66769675926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45393</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45837.72260416667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44965.60422453703</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45840.5905324074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45936.40495370371</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45936.58931712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45936.36195601852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45733.6156712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45741.6415162037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>45936.60018518518</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45582.62050925926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45936.41964120371</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45936.42704861111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44865</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>44704.40528935185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45936.59858796297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45936.36921296296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45582.66524305556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45938.40780092592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45939.45197916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45736.46944444445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45938.55978009259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45937.4534375</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45939.39984953704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44964</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45938.50260416666</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45936</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
         <v>45936</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45937.35484953703</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45642.58673611111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45138</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45938</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45939.42364583333</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45121.63271990741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45770.45944444444</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45943.54231481482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>45842.65422453704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44237</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45943.54678240741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45845.50091435185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45845.50322916666</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45275.59357638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45842.67362268519</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>45842.67251157408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45390.58060185185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45847.32696759259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45944.47350694444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44670</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45947.52800925926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>45946.36325231481</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45947.38002314815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45946.55498842592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45849.55525462963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45946.62524305555</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45946.53392361111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45947.4264699074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45947.45293981482</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44843</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45852.57078703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45947.46891203704</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45946.34517361111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>45851.55418981481</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>45852.58104166666</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>45852.59546296296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45812.49445601852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45645</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>45852.5746412037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45851.55586805556</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45851.55748842593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>45951.57142361111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45632.5654050926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45950.41685185185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45763.4009375</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45757.42503472222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>45785.54427083334</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45862.56547453703</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45852.60275462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45862.52585648148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>45862.53918981482</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45864.63327546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45865.44140046297</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45865.4359837963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>44439.46604166667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45867.42266203704</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
         <v>45772.58797453704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45757.65234953703</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>45867.43064814815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>45637</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45133</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45868.85131944445</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>45757.37369212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32039,7 +32039,7 @@
         <v>45957</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45868.29372685185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>45868.83431712963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>45868.85018518518</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45957.48424768518</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45868.83913194444</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45868.84859953704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>45957.50965277778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>45957.52932870371</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45265.62744212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>45957</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>45832.64122685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>45852.61168981482</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45954.37163194444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44972.43747685185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45957.50313657407</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45792.43809027778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45954.4975462963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45954.50453703704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44684.56060185185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>45957.43148148148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45954.48096064815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>45735.44649305556</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33385,7 +33385,7 @@
         <v>45492.45841435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45727.38053240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>45170.52974537037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45845.30168981481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45526</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>45958</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>44964.51579861111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45762.57510416667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>45960.46894675926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>45959.83425925926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>45960.67751157407</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44285.6565162037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34104,7 +34104,7 @@
         <v>45960.01471064815</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45960.688125</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44984</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45961.37568287037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45965.55327546296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45057.42894675926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45965.65832175926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45965.63770833334</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45635</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45965.58917824074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>45965.6553125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>45966.50311342593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>45881.5046412037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45966.34025462963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45677.64354166666</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>45312</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>45966.34560185186</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>45966.35315972222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35195,7 +35195,7 @@
         <v>44964</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>45629</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>45259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>45330.44269675926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>45320</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>45973.63171296296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>45972</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>45973.61974537037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45973.62456018518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>45973.35476851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>45972</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>45973.63755787037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45972</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45973.6449537037</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45972</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>45887.64688657408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>45763.42081018518</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>45979.39712962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>45979.38488425926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>45105.39783564815</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>45979.68946759259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>45726.44540509259</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         <v>45981.65857638889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>45981.40962962963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>45222.6916550926</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45981.5921875</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>45981.4483912037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45981.45741898148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45980.45951388889</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45748</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>45982.61978009259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>45706</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         <v>45982.32059027778</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45982.32641203704</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>45982.38324074074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>46027.73540509259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>46020.58802083333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>46028.66145833334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37503,7 +37503,7 @@
         <v>45987.36651620371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37560,7 +37560,7 @@
         <v>46028.65712962963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>45958.42043981481</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44956.62740740741</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45951.44916666667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>46028.65945601852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>45889.61184027778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45940.38178240741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45960.34961805555</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45968.41636574074</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38113,7 +38113,7 @@
         <v>45960.57180555556</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>44600.44900462963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45947.44677083333</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>45958.45113425926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>46028.65503472222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45957.43520833334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>45968.4377662037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45987.58097222223</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>45986.53128472222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45958.42452546296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>45960.71332175926</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>46024.50481481481</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45960.76657407408</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>45889.60385416666</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>46029.86646990741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39028,7 +39028,7 @@
         <v>44689</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>45987.60527777778</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>45947.47751157408</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39214,7 +39214,7 @@
         <v>45947.5503587963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45947.56074074074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>45958.41660879629</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39400,7 +39400,7 @@
         <v>45958.43461805556</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39462,7 +39462,7 @@
         <v>46020.61392361111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39524,7 +39524,7 @@
         <v>45960.57493055556</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>45960.75167824074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45987.60256944445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>46029.45288194445</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>46024.50523148148</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>45947.44466435185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45558.45347222222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45645.41540509259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>45989.46065972222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40062,7 +40062,7 @@
         <v>45594.65586805555</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40119,7 +40119,7 @@
         <v>46030.45091435185</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40176,7 +40176,7 @@
         <v>45988.56907407408</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40233,7 +40233,7 @@
         <v>46030.65311342593</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>45239.58409722222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40352,7 +40352,7 @@
         <v>45989.47987268519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>46030.66539351852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>45988.57533564815</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>45637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40590,7 +40590,7 @@
         <v>45992.28574074074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45992.29383101852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45992.30194444444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45992.29976851852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>45991.36298611111</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40900,7 +40900,7 @@
         <v>45957</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>45769.3231712963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>45009.33243055556</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>46034</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44858</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45994.37430555555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>46036.71761574074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>46034</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45994.3599537037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>45994.63814814815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45994.52657407407</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>45439</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>45999.38054398148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>45999.42177083333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>45764.63778935185</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>45632.55709490741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>44964</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>45257</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>45239.37905092593</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         <v>45469</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42065,7 +42065,7 @@
         <v>45127</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>46029</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42184,7 +42184,7 @@
         <v>45996.44386574074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42241,7 +42241,7 @@
         <v>44964</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45748.4287962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42365,7 +42365,7 @@
         <v>44726</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>46042.47866898148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>46042.47289351852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>46042.46269675926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>46043.5583449074</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>44732</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>46000.668125</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>45961.5821412037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>44966</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>44909.71309027778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45961.61335648148</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>46003.37525462963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43074,7 +43074,7 @@
         <v>46003.33967592593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>46003.52034722222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>46045.51246527778</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>46045.51665509259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44959.52206018518</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44358.56138888889</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>46043</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>46002.47396990741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43550,7 +43550,7 @@
         <v>44853.56622685185</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43607,7 +43607,7 @@
         <v>45251</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>45574</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>46044.4862037037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>45726.4434375</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>46002.47112268519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>46002.48126157407</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43974,7 +43974,7 @@
         <v>46044.64974537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>46002.361875</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44421</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>46007.64109953704</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>46007.56385416666</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>46049.56449074074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>46048.45535879629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>46048.46590277777</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>44335</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>46049.66104166667</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>46044.63179398148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>45265.56704861111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>46051.58244212963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>46051.57649305555</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>46051.7077199074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>46051.71248842592</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>46008.32130787037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>46009</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45020,7 +45020,7 @@
         <v>45783</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>46051.45866898148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>46050.54232638889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>46008.84649305556</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>46008.85138888889</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>46008.34482638889</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44453.60243055555</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45784</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>46051.56842592593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45548,7 +45548,7 @@
         <v>46008.7384375</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45605,7 +45605,7 @@
         <v>46010.64234953704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         <v>45279.51664351852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>46029</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>46010.66298611111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45848,7 +45848,7 @@
         <v>45751.59844907407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         <v>45538</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         <v>46055.67453703703</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>46054.72121527778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>46010.56049768518</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46143,7 +46143,7 @@
         <v>46055.68753472222</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>46052.61545138889</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46257,7 +46257,7 @@
         <v>45040.43703703704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>46010.55542824074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>46010.55767361111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46443,7 +46443,7 @@
         <v>45821</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>46055.66452546296</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46562,7 +46562,7 @@
         <v>46055.66721064815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46619,7 +46619,7 @@
         <v>46011.5487037037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44781.68261574074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46733,7 +46733,7 @@
         <v>46010.55642361111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>46010.55979166667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         <v>46052.67892361111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>44337</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46976,7 +46976,7 @@
         <v>46053</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>46053</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>46014.37875</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47152,7 +47152,7 @@
         <v>45400.41387731482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44713</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44781.3843287037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>46053</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>46020.75388888889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>46020.76443287037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>46020.7575</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>46020.76140046296</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>46020.76618055555</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>44978.5362037037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47752,7 +47752,7 @@
         <v>45384.60682870371</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47809,7 +47809,7 @@
         <v>46020.77010416667</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44594.41829861111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44964</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47995,7 +47995,7 @@
         <v>44747</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45181</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>44907.56795138889</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45624.55622685186</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45733.42229166667</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45733.42510416666</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>46017.47381944444</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>46017.53915509259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>45726.44707175926</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45645</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48605,7 +48605,7 @@
         <v>44909</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48662,7 +48662,7 @@
         <v>45366.5775462963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48719,7 +48719,7 @@
         <v>44964.52627314815</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48781,7 +48781,7 @@
         <v>45245.39725694444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48838,7 +48838,7 @@
         <v>45560</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48900,7 +48900,7 @@
         <v>45135</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48962,7 +48962,7 @@
         <v>45229</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45569</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49086,7 +49086,7 @@
         <v>44978.5591087963</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49143,7 +49143,7 @@
         <v>44978.56202546296</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49200,7 +49200,7 @@
         <v>45642</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49257,7 +49257,7 @@
         <v>45761.56990740741</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45058.53024305555</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>44453</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44956.36935185185</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49495,7 +49495,7 @@
         <v>45639</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49552,7 +49552,7 @@
         <v>44908</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>44971</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45470</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44371</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49790,7 +49790,7 @@
         <v>44597.83796296296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>45387</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>45580</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         <v>44874</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>44701.60350694445</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>45244.6134837963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50132,7 +50132,7 @@
         <v>45190</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44862</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50251,7 +50251,7 @@
         <v>45385</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50308,7 +50308,7 @@
         <v>44696</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50365,7 +50365,7 @@
         <v>44365</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50427,7 +50427,7 @@
         <v>44966</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50489,7 +50489,7 @@
         <v>44446</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50551,7 +50551,7 @@
         <v>45439.42039351852</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50608,7 +50608,7 @@
         <v>44588</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50665,7 +50665,7 @@
         <v>45387.55987268518</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50727,7 +50727,7 @@
         <v>45387.34152777777</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50784,7 +50784,7 @@
         <v>45645</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50841,7 +50841,7 @@
         <v>45763.67659722222</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50903,7 +50903,7 @@
         <v>44792</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50960,7 +50960,7 @@
         <v>45762.61427083334</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51022,7 +51022,7 @@
         <v>45104.53165509259</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51084,7 +51084,7 @@
         <v>45072</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51141,7 +51141,7 @@
         <v>45385.63880787037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>44964</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51265,7 +51265,7 @@
         <v>45643</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45655</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51384,7 +51384,7 @@
         <v>45379.4344212963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51441,7 +51441,7 @@
         <v>45741.65077546296</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45769.65503472222</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45705.29239583333</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45174</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>44980</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>44981.51266203704</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>44382</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>44266.35443287037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51922,7 +51922,7 @@
         <v>45439</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51979,7 +51979,7 @@
         <v>45600.54467592593</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52036,7 +52036,7 @@
         <v>45763.38787037037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52098,7 +52098,7 @@
         <v>44732.35172453704</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52155,7 +52155,7 @@
         <v>45204</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45754.71314814815</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45203</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>44389</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44883</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>45167</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44917</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44804</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45046</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45392.64703703704</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>45448</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>45762.56429398148</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>45762.62068287037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>45727.37728009259</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>45092</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>45764.44233796297</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>45754.72487268518</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53221,7 +53221,7 @@
         <v>45390.5662962963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
         <v>45638</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         <v>45776.37788194444</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53459,7 +53459,7 @@
         <v>45776.37835648148</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>45516.66552083333</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>45777.36902777778</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53640,7 +53640,7 @@
         <v>45777.55640046296</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53697,7 +53697,7 @@
         <v>45308.49630787037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53754,7 +53754,7 @@
         <v>45357.45214120371</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53811,7 +53811,7 @@
         <v>45782.3503587963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53873,7 +53873,7 @@
         <v>45782.483125</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>45783.4287962963</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53997,7 +53997,7 @@
         <v>45782.59054398148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54054,7 +54054,7 @@
         <v>45783.42976851852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54116,7 +54116,7 @@
         <v>45784.43336805556</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>45785</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54230,7 +54230,7 @@
         <v>45527</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54292,7 +54292,7 @@
         <v>45789.63409722222</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>45791.45799768518</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54406,7 +54406,7 @@
         <v>45791.46357638889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54463,7 +54463,7 @@
         <v>45791.4603587963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54520,7 +54520,7 @@
         <v>45793.5515162037</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54577,7 +54577,7 @@
         <v>45713</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54639,7 +54639,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54701,7 +54701,7 @@
         <v>45203</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54763,7 +54763,7 @@
         <v>45511</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54820,7 +54820,7 @@
         <v>45796.65540509259</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54882,7 +54882,7 @@
         <v>45573.66729166666</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54939,7 +54939,7 @@
         <v>45796.66336805555</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>45796.6252662037</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -575,7 +575,7 @@
         <v>45659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45947.47805555556</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45940.56810185185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45964.59460648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45181</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45660</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44651</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45660</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46052.69451388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45985.6365625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45061</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44977</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>45940.57412037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45978.65361111111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>46029</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44701</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>44970</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44950</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>46021.40372685185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45975.4800462963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45741.64648148148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45966.67679398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45831.4458912037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45707</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44662</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45912.65143518519</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>45930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45722.57912037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45946.52922453704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44966</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45965.64359953703</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44970</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44551</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44677</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45399.48680555556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45905.31760416667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45853.32288194444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45947.63479166666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44846</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45964.62684027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45758.4828125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45294.44883101852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>45981.63950231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45142</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>45548.4465162037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45783.38454861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45799.62886574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44579.9575</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44756.69783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44788</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>45748.4525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45163</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45683</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45629</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45722.58457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45917.57564814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45632</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45922.49263888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45931.32129629629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44595</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45952.59070601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45953.40888888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45953.42253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>45964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45967.33539351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45931.43355324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45940.3791087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45763.51265046297</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45722.58086805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45966.67909722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>46051.57261574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45160</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>46071.55975694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45741.63833333334</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45722.57790509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45335</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45310.44064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45310</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45789</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45789.63715277778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45621.68104166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44308</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44337</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44452</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44463</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>44594.46940972222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44713</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44516.36832175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>44715.41534722222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44515</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>44481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44439.57831018518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44580</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44708</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44708</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44886.47109953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44286</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44824.59918981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44438</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44421</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>44627.47141203703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44453</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44504.63344907408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44616</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44627.46730324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44790.60746527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44389</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44469.55407407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44452</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44734</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44480</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44337</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44859</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>44743</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>44853.5450462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44551</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44865</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44543.52140046296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44704.44180555556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44701.57021990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44750</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44548</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44452</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44742</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44648.65048611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44648.65753472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44469.56458333333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44636.93181712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44684.47436342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44480.58166666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44672.41855324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44496</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44469</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44631.29655092592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44728</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44871.72850694445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44749.52354166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44627.4699537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44627.4737962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44819.52074074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>45736.38332175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44945</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>45252</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>45252.57987268519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>45420.36299768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44965.42444444444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44491.3346875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45189</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45775.63877314814</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45080</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45387.33554398148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44858.783125</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45685.91146990741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44847</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45457</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44907</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45005</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45674</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45253</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45173.3516087963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45394</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44620.62225694444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45646.57768518518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45314.43193287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45622.65828703704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45751.63172453704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45344.338125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45622.67170138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45224.79760416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45551</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44291</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45447</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44769.65189814815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45022</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45757.65542824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44841.57192129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45727.37976851852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45161.32083333333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44853.57118055555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44270</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44924</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44916.6696875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44739</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45226.60010416667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45541.29972222223</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>45161.64891203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>45478</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44638.40253472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>45399</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45761</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45769.59454861111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45184</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45455</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44966</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45446</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44950.47427083334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45818.47733796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45818.58984953703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45649.6225</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45643</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45539.43512731481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45818.54159722223</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45887.66127314815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45574</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45887.52802083334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45162.44894675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45888.43912037037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45824.42741898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45888.49290509259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45821.60461805556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45824.59332175926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45891.57488425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45826.65520833333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45891.58877314815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45758</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45894.6178125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45894.62137731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44631.38126157408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44858.61703703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45685.70260416667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45401.68577546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45833.61322916667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45832.58662037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45833.63829861111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45833.65157407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45832.69688657407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45833.60854166667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45896.58956018519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45896.62949074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45832.69494212963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45901.48795138889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45901.49728009259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45832.32575231481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45901.54505787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45775</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44945</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45898.61831018519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45901.56194444445</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45030</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44389</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45901.54918981482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>45901.55429398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45835.32549768518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45901.55740740741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45901.56009259259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45835.59493055556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45833.816875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45807.63822916667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45902.44439814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45835.56524305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45902.40758101852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45902.40875</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45835.58365740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44929</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45835</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45835.57688657408</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45833.81484953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45903</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45903</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45538</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45807.62752314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>45754</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45772.33785879629</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44942.49743055556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44518.40658564815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45837.72260416667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45903.81962962963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45748.6355787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44964</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45840.5905324074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45908.58109953703</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45908.35633101852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45908.36148148148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45910.47983796296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45910.48737268519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45911.58546296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45842.65422453704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45910.47623842592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45845.50091435185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45912.64945601852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45845.50322916666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45842.67362268519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45842.67251157408</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45281.37799768519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45847.32696759259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>45310.44783564815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45849.55525462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>45623.41342592592</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44937.61023148148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>45786</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45631.38019675926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44896.68234953703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44896.69231481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44928.45600694444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44953</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45917.55430555555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44837.66217592593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45853</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45845.38168981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44916.66769675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45489</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45833.48898148148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45833.45049768518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45845.36872685186</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45848.58708333333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45912.66787037037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45912.67517361111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45489</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44890</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45071.64012731481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45257.65261574074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44894</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45587.60459490741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45852.57078703704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44846.38762731481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45912.67254629629</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45851.55418981481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45666</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>45786</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45853.36192129629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44936</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45631.38398148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45917.45171296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45623.47248842593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45852.58104166666</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45852.59546296296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45812.49445601852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45645</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45393</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>45852.5746412037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45851.55586805556</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45851.55748842593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44965.60422453703</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45921.71658564815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45921.71239583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45922.66908564815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>45922.48269675926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45921.71451388889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45785.54427083334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45733.6156712963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45741.6415162037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45921.71875</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45922.33063657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45582.62050925926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45862.56547453703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45852.60275462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44865</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44704.40528935185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45862.52585648148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>45862.53918981482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>45582.66524305556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>45736.46944444445</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45864.63327546296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45865.44140046297</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45865.4359837963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45867.42266203704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>44964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>45867.43064814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45925.54199074074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45642.58673611111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45138</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45868.85131944445</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45757.37369212963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45868.29372685185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45868.83431712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45868.85018518518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45121.63271990741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45868.83913194444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45868.84859953704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45928.59989583334</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45770.45944444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45929.471875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>45832.64122685185</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45852.61168981482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>44887</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>45928.60292824074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45928.60719907407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45792.43809027778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>45926.47443287037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>45735.44649305556</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45845.30168981481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>45275.59357638889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>45526</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45390.58060185185</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>44843</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>45936.40495370371</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45936.58931712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45936.36195601852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45936.60018518518</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45936.41964120371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45936.42704861111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45936.59858796297</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45632.5654050926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45881.5046412037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>45936.36921296296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45938.40780092592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45939.45197916667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45763.4009375</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45938.55978009259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>45757.42503472222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>45937.4534375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>45939.39984953704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>45938.50260416666</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>45936</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45936</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45937.35484953703</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45938</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45939.42364583333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44439.46604166667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45772.58797453704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45757.65234953703</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45133</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>45943.54231481482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>45265.62744212963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>45887.64688657408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>45943.54678240741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>44972.43747685185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44684.56060185185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45492.45841435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45727.38053240741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>45170.52974537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>45944.47350694444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45937</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>45947.52800925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45946.36325231481</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45947.38002314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45946.55498842592</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45946.62524305555</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>45946.53392361111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>45947.4264699074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>45947.45293981482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44964.51579861111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>45947.46891203704</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>45946.34517361111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45762.57510416667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45950.41685185185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31700,7 +31700,7 @@
         <v>44285.6565162037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>44984</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45057.42894675926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45635</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31933,7 +31933,7 @@
         <v>45957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>45957.48424768518</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45957.50965277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>45957.52932870371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>45957</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>45677.64354166666</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32280,7 +32280,7 @@
         <v>45312</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32337,7 +32337,7 @@
         <v>45954.37163194444</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32394,7 +32394,7 @@
         <v>44964</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>45957.50313657407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>45954.4975462963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>45954.50453703704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>45957.43148148148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32689,7 +32689,7 @@
         <v>45954.48096064815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>45629</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>45259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>45330.44269675926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>45320</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>45958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>45960.46894675926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>45959.83425925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>45960.67751157407</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>45960.01471064815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>45960.688125</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>45961.37568287037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>45763.42081018518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>45965.55327546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>45296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>45965.65832175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45965.63770833334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33703,7 +33703,7 @@
         <v>45965.58917824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45965.6553125</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>45105.39783564815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>45966.50311342593</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>45726.44540509259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45966.34025462963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45222.6916550926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>45966.34560185186</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45966.35315972222</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45748</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>45706</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45973.63171296296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45972</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>45973.61974537037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45973.62456018518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45973.35476851852</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45972</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45973.63755787037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45972</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>45973.6449537037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>45972</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>44956.62740740741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35022,7 +35022,7 @@
         <v>44600.44900462963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45979.39712962963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>44689</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45979.38488425926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45558.45347222222</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45979.68946759259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>45645.41540509259</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45981.65857638889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45981.40962962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>45594.65586805555</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45981.5921875</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45981.4483912037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>45981.45741898148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>45980.45951388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>45239.58409722222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>45982.61978009259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>45982.32059027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45982.32641203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45982.38324074074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45637</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45987.36651620371</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45958.42043981481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>45951.44916666667</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45889.61184027778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>45940.38178240741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45960.34961805555</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36564,7 +36564,7 @@
         <v>45968.41636574074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         <v>45960.57180555556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45947.44677083333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45958.45113425926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36812,7 +36812,7 @@
         <v>45957.43520833334</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>45968.4377662037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>45987.58097222223</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>45986.53128472222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>45958.42452546296</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>45960.71332175926</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45960.76657407408</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>45889.60385416666</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>45987.60527777778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45947.47751157408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>45947.5503587963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>45947.56074074074</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>45958.41660879629</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>45958.43461805556</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45769.3231712963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>45960.57493055556</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45960.75167824074</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37851,7 +37851,7 @@
         <v>45987.60256944445</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>45947.44466435185</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37975,7 +37975,7 @@
         <v>45009.33243055556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45989.46065972222</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44858</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45988.56907407408</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>45989.47987268519</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38270,7 +38270,7 @@
         <v>45988.57533564815</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>45992.28574074074</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45992.29383101852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>45992.30194444444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>45439</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>45992.29976851852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38632,7 +38632,7 @@
         <v>45991.36298611111</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38694,7 +38694,7 @@
         <v>45957</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38751,7 +38751,7 @@
         <v>45764.63778935185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>46034</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>45632.55709490741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>44964</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>45257</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>45239.37905092593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>45994.37430555555</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>46036.71761574074</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>46034</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>45469</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>45994.3599537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>45994.63814814815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>45127</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45994.52657407407</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44964</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>45999.38054398148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>45999.42177083333</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>45748.4287962963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39807,7 +39807,7 @@
         <v>44726</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39869,7 +39869,7 @@
         <v>46029</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39931,7 +39931,7 @@
         <v>44732</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45996.44386574074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>46042.47866898148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>46042.47289351852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>46042.46269675926</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44966</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44909.71309027778</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>46043.5583449074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>46000.668125</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45961.5821412037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44959.52206018518</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44358.56138888889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>44853.56622685185</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>45251</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>45574</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>45961.61335648148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40868,7 +40868,7 @@
         <v>45726.4434375</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40930,7 +40930,7 @@
         <v>46003.37525462963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>46003.33967592593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         <v>46003.52034722222</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>46045.51246527778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>46045.51665509259</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44421</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>46043</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>46002.47396990741</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>46044.4862037037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>44335</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41530,7 +41530,7 @@
         <v>46002.47112268519</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>46002.48126157407</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>46044.64974537037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>46002.361875</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>46007.64109953704</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>46007.56385416666</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41892,7 +41892,7 @@
         <v>45265.56704861111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>46049.56449074074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>46048.45535879629</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>46048.46590277777</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>46049.66104166667</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>44453.60243055555</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42234,7 +42234,7 @@
         <v>46044.63179398148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         <v>45279.51664351852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>46051.58244212963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>46051.57649305555</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>46051.7077199074</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>46051.71248842592</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>46008.32130787037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42638,7 +42638,7 @@
         <v>46009</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>45751.59844907407</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42757,7 +42757,7 @@
         <v>45538</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>46051.45866898148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42871,7 +42871,7 @@
         <v>46050.54232638889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>46008.84649305556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42985,7 +42985,7 @@
         <v>46008.85138888889</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>46008.34482638889</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45040.43703703704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>46051.56842592593</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>46008.7384375</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>46010.64234953704</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46029</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>44781.68261574074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>46010.66298611111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44337</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>46055.67453703703</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43642,7 +43642,7 @@
         <v>46054.72121527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>46010.56049768518</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>46055.68753472222</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45400.41387731482</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>46052.61545138889</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44713</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>46010.55542824074</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>46010.55767361111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>44781.3843287037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>46055.66452546296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>46055.66721064815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>46011.5487037037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>46010.55642361111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44408,7 +44408,7 @@
         <v>46010.55979166667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44470,7 +44470,7 @@
         <v>44978.5362037037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>45384.60682870371</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>46053</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44641,7 +44641,7 @@
         <v>46053</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44698,7 +44698,7 @@
         <v>46014.37875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44760,7 +44760,7 @@
         <v>44594.41829861111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44822,7 +44822,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44884,7 +44884,7 @@
         <v>46053</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         <v>44747</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>45181</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44907.56795138889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>45624.55622685186</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45733.42229166667</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>45733.42510416666</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>46017.47381944444</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45350,7 +45350,7 @@
         <v>46017.53915509259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45726.44707175926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>46020.7575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45536,7 +45536,7 @@
         <v>45645</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45613,7 +45613,7 @@
         <v>45821</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45675,7 +45675,7 @@
         <v>45951.57142361111</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45737,7 +45737,7 @@
         <v>45910.56313657408</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45799,7 +45799,7 @@
         <v>44909</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
         <v>46020.75388888889</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45918,7 +45918,7 @@
         <v>45366.5775462963</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45975,7 +45975,7 @@
         <v>44964.52627314815</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45783</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45911.35693287037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45891.48542824074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>46020.76140046296</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46285,7 +46285,7 @@
         <v>46020.76443287037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>46020.76618055555</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46409,7 +46409,7 @@
         <v>46020.77010416667</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>45245.39725694444</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>45560</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>46020.58802083333</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>46020.61392361111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45784</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>46052.67892361111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>45135</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45229</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46957,7 +46957,7 @@
         <v>45569</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47019,7 +47019,7 @@
         <v>44978.5591087963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>44978.56202546296</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>46024.50481481481</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>46024.50523148148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47257,7 +47257,7 @@
         <v>46066.56225694445</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47314,7 +47314,7 @@
         <v>46027.73540509259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47371,7 +47371,7 @@
         <v>45642</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47428,7 +47428,7 @@
         <v>45761.56990740741</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>45058.53024305555</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47547,7 +47547,7 @@
         <v>44453</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>46070.49069444444</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         <v>46071.66385416667</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>44956.36935185185</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47790,7 +47790,7 @@
         <v>45639</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47847,7 +47847,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47909,7 +47909,7 @@
         <v>46028.66145833334</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         <v>46028.65503472222</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>44971</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>46028.65712962963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>46028.65945601852</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48214,7 +48214,7 @@
         <v>45470</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48271,7 +48271,7 @@
         <v>46029.45288194445</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48328,7 +48328,7 @@
         <v>44371</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48390,7 +48390,7 @@
         <v>44597.83796296296</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48447,7 +48447,7 @@
         <v>45387</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48504,7 +48504,7 @@
         <v>45580</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48561,7 +48561,7 @@
         <v>46070.5502662037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48623,7 +48623,7 @@
         <v>44874</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48680,7 +48680,7 @@
         <v>46030.65311342593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48742,7 +48742,7 @@
         <v>46030.45091435185</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>44701.60350694445</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48856,7 +48856,7 @@
         <v>46070.39546296297</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48913,7 +48913,7 @@
         <v>46030.66539351852</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48975,7 +48975,7 @@
         <v>46029.86646990741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49032,7 +49032,7 @@
         <v>45244.6134837963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49089,7 +49089,7 @@
         <v>45190</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>44862</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>45385</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>44696</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>44365</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>44966</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49446,7 +49446,7 @@
         <v>44446</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>45439.42039351852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49565,7 +49565,7 @@
         <v>44588</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45387.55987268518</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49684,7 +49684,7 @@
         <v>45387.34152777777</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49741,7 +49741,7 @@
         <v>45645</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49798,7 +49798,7 @@
         <v>45763.67659722222</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44792</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49917,7 +49917,7 @@
         <v>45762.61427083334</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>45104.53165509259</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>45072</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>45385.63880787037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50160,7 +50160,7 @@
         <v>44964</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50222,7 +50222,7 @@
         <v>45643</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50284,7 +50284,7 @@
         <v>45655</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50341,7 +50341,7 @@
         <v>45379.4344212963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50398,7 +50398,7 @@
         <v>45741.65077546296</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50460,7 +50460,7 @@
         <v>45769.65503472222</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50522,7 +50522,7 @@
         <v>45705.29239583333</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50584,7 +50584,7 @@
         <v>45174</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50641,7 +50641,7 @@
         <v>44980</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50698,7 +50698,7 @@
         <v>44981.51266203704</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50755,7 +50755,7 @@
         <v>44382</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         <v>44266.35443287037</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50879,7 +50879,7 @@
         <v>45439</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50936,7 +50936,7 @@
         <v>45600.54467592593</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45763.38787037037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>44732.35172453704</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45204</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45754.71314814815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45203</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>45075</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44389</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51412,7 +51412,7 @@
         <v>44883</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51469,7 +51469,7 @@
         <v>45167</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44917</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44804</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>45046</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>45392.64703703704</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>45448</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>45762.56429398148</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51878,7 +51878,7 @@
         <v>45762.62068287037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51940,7 +51940,7 @@
         <v>45727.37728009259</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52002,7 +52002,7 @@
         <v>45092</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52059,7 +52059,7 @@
         <v>45764.44233796297</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52121,7 +52121,7 @@
         <v>45754.72487268518</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52178,7 +52178,7 @@
         <v>45390.5662962963</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52240,7 +52240,7 @@
         <v>45033</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52297,7 +52297,7 @@
         <v>45638</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52354,7 +52354,7 @@
         <v>45776.37788194444</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52416,7 +52416,7 @@
         <v>45776.37835648148</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52478,7 +52478,7 @@
         <v>45516.66552083333</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52535,7 +52535,7 @@
         <v>45777.36902777778</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52597,7 +52597,7 @@
         <v>45777.55640046296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52654,7 +52654,7 @@
         <v>45308.49630787037</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52711,7 +52711,7 @@
         <v>45357.45214120371</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52768,7 +52768,7 @@
         <v>45782.3503587963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52830,7 +52830,7 @@
         <v>45782.483125</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52892,7 +52892,7 @@
         <v>45783.4287962963</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52954,7 +52954,7 @@
         <v>45782.59054398148</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         <v>45783.42976851852</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53073,7 +53073,7 @@
         <v>45784.43336805556</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53130,7 +53130,7 @@
         <v>45785</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53187,7 +53187,7 @@
         <v>45527</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45789.63409722222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53306,7 +53306,7 @@
         <v>45791.45799768518</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53363,7 +53363,7 @@
         <v>45791.46357638889</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53420,7 +53420,7 @@
         <v>45791.4603587963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53477,7 +53477,7 @@
         <v>45793.5515162037</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53534,7 +53534,7 @@
         <v>45713</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53596,7 +53596,7 @@
         <v>45119</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53658,7 +53658,7 @@
         <v>45203</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>45511</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>45796.65540509259</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53839,7 +53839,7 @@
         <v>45573.66729166666</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53896,7 +53896,7 @@
         <v>45796.66336805555</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53958,7 +53958,7 @@
         <v>45796.6252662037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54020,7 +54020,7 @@
         <v>45645.59362268518</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45526</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>45799.44140046297</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54201,7 +54201,7 @@
         <v>45799.59126157407</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54258,7 +54258,7 @@
         <v>45387.55097222222</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54315,7 +54315,7 @@
         <v>45803.63006944444</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54372,7 +54372,7 @@
         <v>45366.58351851852</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54429,7 +54429,7 @@
         <v>45786</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45645</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45804.57641203704</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54610,7 +54610,7 @@
         <v>45804.69550925926</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54672,7 +54672,7 @@
         <v>45805</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54729,7 +54729,7 @@
         <v>45804.60184027778</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54791,7 +54791,7 @@
         <v>45804.54819444445</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54853,7 +54853,7 @@
         <v>45791</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54910,7 +54910,7 @@
         <v>45527</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54967,7 +54967,7 @@
         <v>45810.47152777778</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55024,7 +55024,7 @@
         <v>45343.66717592593</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55081,7 +55081,7 @@
         <v>45812.66421296296</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55143,7 +55143,7 @@
         <v>45812.63758101852</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55205,7 +55205,7 @@
         <v>45812.4972337963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55262,7 +55262,7 @@
         <v>45813.55859953703</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55324,7 +55324,7 @@
         <v>45812.47153935185</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -575,7 +575,7 @@
         <v>45659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45947.47805555556</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45940.56810185185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45964.59460648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45181</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45660</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44651</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45660</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46052.69451388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45985.6365625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45061</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44977</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>45940.57412037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45978.65361111111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>46029</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44701</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>44970</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44950</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>46021.40372685185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45975.4800462963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45741.64648148148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45966.67679398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45831.4458912037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45707</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44662</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45912.65143518519</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>45930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45722.57912037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45946.52922453704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44966</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45965.64359953703</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44970</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44551</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44677</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45399.48680555556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45905.31760416667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45853.32288194444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45947.63479166666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44846</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45964.62684027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45758.4828125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45294.44883101852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>45981.63950231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45142</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>45548.4465162037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45783.38454861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45799.62886574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44579.9575</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44756.69783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44788</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>45748.4525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45163</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45683</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45629</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45722.58457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45917.57564814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45632</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45922.49263888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45931.32129629629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44595</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45952.59070601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45953.40888888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45953.42253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>45964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45967.33539351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45931.43355324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45940.3791087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45763.51265046297</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45722.58086805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45966.67909722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>46051.57261574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45160</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>46071.55975694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45741.63833333334</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45722.57790509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45335</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45310.44064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45310</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45789</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45789.63715277778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45621.68104166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44308</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44337</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44452</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44463</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>44594.46940972222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44713</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44516.36832175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>44715.41534722222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44515</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>44481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44439.57831018518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44580</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44708</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44708</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44886.47109953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44286</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44824.59918981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44438</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44421</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>44627.47141203703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44453</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44504.63344907408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44616</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44627.46730324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44790.60746527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44389</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44469.55407407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44452</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44734</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44480</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44337</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44859</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>44743</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>44853.5450462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44551</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44865</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44543.52140046296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44704.44180555556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44701.57021990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44750</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44548</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44452</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44742</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44648.65048611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44648.65753472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44469.56458333333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44636.93181712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44684.47436342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44480.58166666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44672.41855324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44496</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44469</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44631.29655092592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44728</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44871.72850694445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44749.52354166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44627.4699537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44627.4737962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44819.52074074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>45736.38332175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44945</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>45252</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>45252.57987268519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>45420.36299768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44965.42444444444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44491.3346875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45189</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45775.63877314814</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45080</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45387.33554398148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44858.783125</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45685.91146990741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44847</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45457</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44907</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45005</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45674</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45253</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45173.3516087963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45394</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44620.62225694444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45646.57768518518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45314.43193287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45622.65828703704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45751.63172453704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45344.338125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45622.67170138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45224.79760416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45551</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44291</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45447</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44769.65189814815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45022</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45757.65542824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44841.57192129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45727.37976851852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45161.32083333333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44853.57118055555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44270</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44924</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44916.6696875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44739</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45226.60010416667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45541.29972222223</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>45161.64891203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>45478</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44638.40253472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>45399</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45761</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45769.59454861111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45184</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45455</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44966</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45446</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44950.47427083334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45818.47733796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45818.58984953703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45649.6225</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45643</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45539.43512731481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45818.54159722223</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45887.66127314815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45574</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45887.52802083334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45162.44894675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45888.43912037037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45824.42741898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45888.49290509259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45821.60461805556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45824.59332175926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45891.57488425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45826.65520833333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45891.58877314815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45758</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45894.6178125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45894.62137731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44631.38126157408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44858.61703703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45685.70260416667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45401.68577546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45833.61322916667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45832.58662037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45833.63829861111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45833.65157407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45832.69688657407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45833.60854166667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45896.58956018519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45896.62949074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45832.69494212963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45901.48795138889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45901.49728009259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45832.32575231481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45901.54505787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45775</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44945</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45898.61831018519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45901.56194444445</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45030</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44389</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45901.54918981482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>45901.55429398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45835.32549768518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45901.55740740741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45901.56009259259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45835.59493055556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45833.816875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45807.63822916667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45902.44439814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45835.56524305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45902.40758101852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45902.40875</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45835.58365740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44929</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45835</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45835.57688657408</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45833.81484953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45903</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45903</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45538</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45807.62752314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>45754</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45772.33785879629</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44942.49743055556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44518.40658564815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45837.72260416667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45903.81962962963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45748.6355787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44964</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45840.5905324074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45908.58109953703</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45908.35633101852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45908.36148148148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45910.47983796296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45910.48737268519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45911.58546296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45842.65422453704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45910.47623842592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45845.50091435185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45912.64945601852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45845.50322916666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45842.67362268519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45842.67251157408</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45281.37799768519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45847.32696759259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>45310.44783564815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45849.55525462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>45623.41342592592</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44937.61023148148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>45786</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45631.38019675926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44896.68234953703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44896.69231481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44928.45600694444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44953</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45917.55430555555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44837.66217592593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45853</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45845.38168981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44916.66769675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45489</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45833.48898148148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45833.45049768518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45845.36872685186</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45848.58708333333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45912.66787037037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45912.67517361111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45489</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44890</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45071.64012731481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45257.65261574074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44894</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45587.60459490741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45852.57078703704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44846.38762731481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45912.67254629629</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45851.55418981481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45666</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>45786</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45853.36192129629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44936</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45631.38398148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45917.45171296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45623.47248842593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45852.58104166666</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45852.59546296296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45812.49445601852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45645</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45393</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>45852.5746412037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45851.55586805556</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45851.55748842593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44965.60422453703</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45921.71658564815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45921.71239583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45922.66908564815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>45922.48269675926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45921.71451388889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45785.54427083334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45733.6156712963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45741.6415162037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45921.71875</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45922.33063657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45582.62050925926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45862.56547453703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45852.60275462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44865</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44704.40528935185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45862.52585648148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>45862.53918981482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>45582.66524305556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>45736.46944444445</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45864.63327546296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45865.44140046297</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45865.4359837963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45867.42266203704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>44964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>45867.43064814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45925.54199074074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45642.58673611111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45138</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45868.85131944445</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45757.37369212963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45868.29372685185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45868.83431712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45868.85018518518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45121.63271990741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45868.83913194444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45868.84859953704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45928.59989583334</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45770.45944444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45929.471875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>45832.64122685185</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45852.61168981482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>44887</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>45928.60292824074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45928.60719907407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45792.43809027778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>45926.47443287037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>45735.44649305556</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45845.30168981481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>45275.59357638889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>45526</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45390.58060185185</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>44843</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>45936.40495370371</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45936.58931712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45936.36195601852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45936.60018518518</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45936.41964120371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45936.42704861111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45936.59858796297</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45632.5654050926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45881.5046412037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>45936.36921296296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45938.40780092592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45939.45197916667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45763.4009375</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45938.55978009259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>45757.42503472222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>45937.4534375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>45939.39984953704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>45938.50260416666</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>45936</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45936</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45937.35484953703</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45938</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45939.42364583333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44439.46604166667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45772.58797453704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45757.65234953703</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45133</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>45943.54231481482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>45265.62744212963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>45887.64688657408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>45943.54678240741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>44972.43747685185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44684.56060185185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45492.45841435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45727.38053240741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>45170.52974537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>45944.47350694444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45937</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>45947.52800925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45946.36325231481</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45947.38002314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45946.55498842592</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45946.62524305555</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>45946.53392361111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>45947.4264699074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>45947.45293981482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44964.51579861111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>45947.46891203704</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>45946.34517361111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45762.57510416667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45950.41685185185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31700,7 +31700,7 @@
         <v>44285.6565162037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>44984</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45057.42894675926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45635</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31933,7 +31933,7 @@
         <v>45957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>45957.48424768518</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45957.50965277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>45957.52932870371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>45957</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>45677.64354166666</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32280,7 +32280,7 @@
         <v>45312</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32337,7 +32337,7 @@
         <v>45954.37163194444</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32394,7 +32394,7 @@
         <v>44964</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>45957.50313657407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>45954.4975462963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>45954.50453703704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>45957.43148148148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32689,7 +32689,7 @@
         <v>45954.48096064815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>45629</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>45259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>45330.44269675926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>45320</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>45958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>45960.46894675926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>45959.83425925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>45960.67751157407</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>45960.01471064815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>45960.688125</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>45961.37568287037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>45763.42081018518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>45965.55327546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>45296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>45965.65832175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45965.63770833334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33703,7 +33703,7 @@
         <v>45965.58917824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45965.6553125</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>45105.39783564815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>45966.50311342593</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>45726.44540509259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45966.34025462963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45222.6916550926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>45966.34560185186</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45966.35315972222</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45748</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>45706</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45973.63171296296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45972</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>45973.61974537037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45973.62456018518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45973.35476851852</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45972</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45973.63755787037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45972</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>45973.6449537037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>45972</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>44956.62740740741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35022,7 +35022,7 @@
         <v>44600.44900462963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45979.39712962963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>44689</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45979.38488425926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45558.45347222222</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45979.68946759259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>45645.41540509259</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45981.65857638889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45981.40962962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>45594.65586805555</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45981.5921875</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45981.4483912037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>45981.45741898148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>45980.45951388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>45239.58409722222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>45982.61978009259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>45982.32059027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45982.32641203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45982.38324074074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45637</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45987.36651620371</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45958.42043981481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>45951.44916666667</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45889.61184027778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>45940.38178240741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45960.34961805555</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36564,7 +36564,7 @@
         <v>45968.41636574074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         <v>45960.57180555556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45947.44677083333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45958.45113425926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36812,7 +36812,7 @@
         <v>45957.43520833334</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>45968.4377662037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>45987.58097222223</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>45986.53128472222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>45958.42452546296</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>45960.71332175926</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45960.76657407408</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>45889.60385416666</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>45987.60527777778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45947.47751157408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>45947.5503587963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>45947.56074074074</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>45958.41660879629</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>45958.43461805556</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45769.3231712963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>45960.57493055556</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45960.75167824074</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37851,7 +37851,7 @@
         <v>45987.60256944445</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>45947.44466435185</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37975,7 +37975,7 @@
         <v>45009.33243055556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45989.46065972222</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44858</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45988.56907407408</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>45989.47987268519</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38270,7 +38270,7 @@
         <v>45988.57533564815</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>45992.28574074074</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45992.29383101852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>45992.30194444444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>45439</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>45992.29976851852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38632,7 +38632,7 @@
         <v>45991.36298611111</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38694,7 +38694,7 @@
         <v>45957</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38751,7 +38751,7 @@
         <v>45764.63778935185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>46034</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>45632.55709490741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>44964</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>45257</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>45239.37905092593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>45994.37430555555</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>46036.71761574074</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>46034</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>45469</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>45994.3599537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>45994.63814814815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>45127</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45994.52657407407</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44964</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>45999.38054398148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>45999.42177083333</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>45748.4287962963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39807,7 +39807,7 @@
         <v>44726</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39869,7 +39869,7 @@
         <v>46029</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39931,7 +39931,7 @@
         <v>44732</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45996.44386574074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>46042.47866898148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>46042.47289351852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>46042.46269675926</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44966</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44909.71309027778</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>46043.5583449074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>46000.668125</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45961.5821412037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44959.52206018518</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44358.56138888889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>44853.56622685185</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>45251</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>45574</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>45961.61335648148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40868,7 +40868,7 @@
         <v>45726.4434375</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40930,7 +40930,7 @@
         <v>46003.37525462963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>46003.33967592593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         <v>46003.52034722222</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>46045.51246527778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>46045.51665509259</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44421</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>46043</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>46002.47396990741</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>46044.4862037037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>44335</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41530,7 +41530,7 @@
         <v>46002.47112268519</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>46002.48126157407</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>46044.64974537037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>46002.361875</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>46007.64109953704</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>46007.56385416666</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41892,7 +41892,7 @@
         <v>45265.56704861111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>46049.56449074074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>46048.45535879629</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>46048.46590277777</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>46049.66104166667</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>44453.60243055555</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42234,7 +42234,7 @@
         <v>46044.63179398148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         <v>45279.51664351852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>46051.58244212963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>46051.57649305555</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>46051.7077199074</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>46051.71248842592</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>46008.32130787037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42638,7 +42638,7 @@
         <v>46009</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>45751.59844907407</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42757,7 +42757,7 @@
         <v>45538</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>46051.45866898148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42871,7 +42871,7 @@
         <v>46050.54232638889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>46008.84649305556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42985,7 +42985,7 @@
         <v>46008.85138888889</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>46008.34482638889</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45040.43703703704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>46051.56842592593</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>46008.7384375</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>46010.64234953704</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46029</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>44781.68261574074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>46010.66298611111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44337</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>46055.67453703703</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43642,7 +43642,7 @@
         <v>46054.72121527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>46010.56049768518</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>46055.68753472222</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45400.41387731482</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>46052.61545138889</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44713</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>46010.55542824074</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>46010.55767361111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>44781.3843287037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>46055.66452546296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>46055.66721064815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>46011.5487037037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>46010.55642361111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44408,7 +44408,7 @@
         <v>46010.55979166667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44470,7 +44470,7 @@
         <v>44978.5362037037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>45384.60682870371</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>46053</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44641,7 +44641,7 @@
         <v>46053</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44698,7 +44698,7 @@
         <v>46014.37875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44760,7 +44760,7 @@
         <v>44594.41829861111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44822,7 +44822,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44884,7 +44884,7 @@
         <v>46053</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         <v>44747</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>45181</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44907.56795138889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>45624.55622685186</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45733.42229166667</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>45733.42510416666</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>46017.47381944444</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45350,7 +45350,7 @@
         <v>46017.53915509259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45726.44707175926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>46020.7575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45536,7 +45536,7 @@
         <v>45645</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45613,7 +45613,7 @@
         <v>45821</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45675,7 +45675,7 @@
         <v>45951.57142361111</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45737,7 +45737,7 @@
         <v>45910.56313657408</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45799,7 +45799,7 @@
         <v>44909</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
         <v>46020.75388888889</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45918,7 +45918,7 @@
         <v>45366.5775462963</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45975,7 +45975,7 @@
         <v>44964.52627314815</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45783</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45911.35693287037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45891.48542824074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>46020.76140046296</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46285,7 +46285,7 @@
         <v>46020.76443287037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>46020.76618055555</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46409,7 +46409,7 @@
         <v>46020.77010416667</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46471,7 +46471,7 @@
         <v>45245.39725694444</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>45560</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>46020.58802083333</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>46020.61392361111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45784</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>46052.67892361111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>45135</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45229</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46957,7 +46957,7 @@
         <v>45569</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47019,7 +47019,7 @@
         <v>44978.5591087963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>44978.56202546296</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>46024.50481481481</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>46024.50523148148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47257,7 +47257,7 @@
         <v>46066.56225694445</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47314,7 +47314,7 @@
         <v>46027.73540509259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47371,7 +47371,7 @@
         <v>45642</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47428,7 +47428,7 @@
         <v>45761.56990740741</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>45058.53024305555</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47547,7 +47547,7 @@
         <v>44453</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>46070.49069444444</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         <v>46071.66385416667</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>44956.36935185185</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47790,7 +47790,7 @@
         <v>45639</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47847,7 +47847,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47909,7 +47909,7 @@
         <v>46028.66145833334</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         <v>46028.65503472222</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>44971</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>46028.65712962963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>46028.65945601852</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48214,7 +48214,7 @@
         <v>45470</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48271,7 +48271,7 @@
         <v>46029.45288194445</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48328,7 +48328,7 @@
         <v>44371</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48390,7 +48390,7 @@
         <v>44597.83796296296</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48447,7 +48447,7 @@
         <v>45387</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48504,7 +48504,7 @@
         <v>45580</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48561,7 +48561,7 @@
         <v>46070.5502662037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48623,7 +48623,7 @@
         <v>44874</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48680,7 +48680,7 @@
         <v>46030.65311342593</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48742,7 +48742,7 @@
         <v>46030.45091435185</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>44701.60350694445</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48856,7 +48856,7 @@
         <v>46070.39546296297</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48913,7 +48913,7 @@
         <v>46030.66539351852</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48975,7 +48975,7 @@
         <v>46029.86646990741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49032,7 +49032,7 @@
         <v>45244.6134837963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49089,7 +49089,7 @@
         <v>45190</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>44862</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>45385</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>44696</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>44365</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>44966</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49446,7 +49446,7 @@
         <v>44446</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>45439.42039351852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49565,7 +49565,7 @@
         <v>44588</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45387.55987268518</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49684,7 +49684,7 @@
         <v>45387.34152777777</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49741,7 +49741,7 @@
         <v>45645</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49798,7 +49798,7 @@
         <v>45763.67659722222</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44792</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49917,7 +49917,7 @@
         <v>45762.61427083334</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>45104.53165509259</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>45072</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>45385.63880787037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50160,7 +50160,7 @@
         <v>44964</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50222,7 +50222,7 @@
         <v>45643</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50284,7 +50284,7 @@
         <v>45655</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50341,7 +50341,7 @@
         <v>45379.4344212963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50398,7 +50398,7 @@
         <v>45741.65077546296</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50460,7 +50460,7 @@
         <v>45769.65503472222</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50522,7 +50522,7 @@
         <v>45705.29239583333</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50584,7 +50584,7 @@
         <v>45174</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50641,7 +50641,7 @@
         <v>44980</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50698,7 +50698,7 @@
         <v>44981.51266203704</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50755,7 +50755,7 @@
         <v>44382</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         <v>44266.35443287037</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50879,7 +50879,7 @@
         <v>45439</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50936,7 +50936,7 @@
         <v>45600.54467592593</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45763.38787037037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>44732.35172453704</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45204</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45754.71314814815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45203</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>45075</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44389</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51412,7 +51412,7 @@
         <v>44883</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51469,7 +51469,7 @@
         <v>45167</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44917</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44804</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>45046</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>45392.64703703704</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>45448</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>45762.56429398148</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51878,7 +51878,7 @@
         <v>45762.62068287037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51940,7 +51940,7 @@
         <v>45727.37728009259</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52002,7 +52002,7 @@
         <v>45092</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52059,7 +52059,7 @@
         <v>45764.44233796297</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52121,7 +52121,7 @@
         <v>45754.72487268518</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52178,7 +52178,7 @@
         <v>45390.5662962963</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52240,7 +52240,7 @@
         <v>45033</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52297,7 +52297,7 @@
         <v>45638</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52354,7 +52354,7 @@
         <v>45776.37788194444</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52416,7 +52416,7 @@
         <v>45776.37835648148</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52478,7 +52478,7 @@
         <v>45516.66552083333</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52535,7 +52535,7 @@
         <v>45777.36902777778</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52597,7 +52597,7 @@
         <v>45777.55640046296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52654,7 +52654,7 @@
         <v>45308.49630787037</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52711,7 +52711,7 @@
         <v>45357.45214120371</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52768,7 +52768,7 @@
         <v>45782.3503587963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52830,7 +52830,7 @@
         <v>45782.483125</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52892,7 +52892,7 @@
         <v>45783.4287962963</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52954,7 +52954,7 @@
         <v>45782.59054398148</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         <v>45783.42976851852</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53073,7 +53073,7 @@
         <v>45784.43336805556</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53130,7 +53130,7 @@
         <v>45785</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53187,7 +53187,7 @@
         <v>45527</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45789.63409722222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53306,7 +53306,7 @@
         <v>45791.45799768518</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53363,7 +53363,7 @@
         <v>45791.46357638889</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53420,7 +53420,7 @@
         <v>45791.4603587963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53477,7 +53477,7 @@
         <v>45793.5515162037</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53534,7 +53534,7 @@
         <v>45713</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53596,7 +53596,7 @@
         <v>45119</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53658,7 +53658,7 @@
         <v>45203</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>45511</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>45796.65540509259</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53839,7 +53839,7 @@
         <v>45573.66729166666</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53896,7 +53896,7 @@
         <v>45796.66336805555</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53958,7 +53958,7 @@
         <v>45796.6252662037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54020,7 +54020,7 @@
         <v>45645.59362268518</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45526</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>45799.44140046297</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54201,7 +54201,7 @@
         <v>45799.59126157407</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54258,7 +54258,7 @@
         <v>45387.55097222222</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54315,7 +54315,7 @@
         <v>45803.63006944444</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54372,7 +54372,7 @@
         <v>45366.58351851852</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54429,7 +54429,7 @@
         <v>45786</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45645</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45804.57641203704</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54610,7 +54610,7 @@
         <v>45804.69550925926</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54672,7 +54672,7 @@
         <v>45805</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54729,7 +54729,7 @@
         <v>45804.60184027778</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54791,7 +54791,7 @@
         <v>45804.54819444445</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54853,7 +54853,7 @@
         <v>45791</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54910,7 +54910,7 @@
         <v>45527</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54967,7 +54967,7 @@
         <v>45810.47152777778</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55024,7 +55024,7 @@
         <v>45343.66717592593</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55081,7 +55081,7 @@
         <v>45812.66421296296</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55143,7 +55143,7 @@
         <v>45812.63758101852</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55205,7 +55205,7 @@
         <v>45812.4972337963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55262,7 +55262,7 @@
         <v>45813.55859953703</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55324,7 +55324,7 @@
         <v>45812.47153935185</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
